--- a/Dados/R2_IS_PCA.xlsx
+++ b/Dados/R2_IS_PCA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Datathon_2023\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF18AE3-FD6D-4633-A975-E96DB3850A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E55379-B3A7-4FE9-8E5A-83B1F61D7205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22860" yWindow="810" windowWidth="19185" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -137,7 +137,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,264 +440,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E15"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2">
+        <v>2.0743271788809752</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-1.152560058620544</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.9978041843680896</v>
+      </c>
+      <c r="F2" s="2">
         <v>0.95663523403006767</v>
       </c>
-      <c r="C2" s="2">
-        <v>2.0743271788809752</v>
-      </c>
-      <c r="D2" s="2">
-        <v>-1.152560058620544</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.9978041843680896</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2">
+        <v>2.1577253573638711</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.41008473062777</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.49925893738420601</v>
+      </c>
+      <c r="F3" s="2">
         <v>1.046792466796542</v>
       </c>
-      <c r="C3" s="2">
-        <v>2.1577253573638711</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.41008473062777</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.49925893738420601</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2">
+        <v>1.4749790469087529</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.74995100303060225</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-0.20563506096626941</v>
+      </c>
+      <c r="F4" s="2">
         <v>0.38867378240972078</v>
       </c>
-      <c r="C4" s="2">
-        <v>1.4749790469087529</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.74995100303060225</v>
-      </c>
-      <c r="E4" s="2">
-        <v>-0.20563506096626941</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2">
+        <v>1.695631439711609</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.51951506254777069</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.10568271643052191</v>
+      </c>
+      <c r="F5" s="2">
         <v>0.58801591431488776</v>
       </c>
-      <c r="C5" s="2">
-        <v>1.695631439711609</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.51951506254777069</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.10568271643052191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2">
+        <v>2.8508340473449629</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.651363957948826</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-0.39811330168793008</v>
+      </c>
+      <c r="F6" s="2">
         <v>0.78686594525941844</v>
       </c>
-      <c r="C6" s="2">
-        <v>2.8508340473449629</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.651363957948826</v>
-      </c>
-      <c r="E6" s="2">
-        <v>-0.39811330168793008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2">
+        <v>2.107800948769734</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.0260492445046681</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-0.65516970768126903</v>
+      </c>
+      <c r="F7" s="2">
         <v>0.35809533694343137</v>
       </c>
-      <c r="C7" s="2">
-        <v>2.107800948769734</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.0260492445046681</v>
-      </c>
-      <c r="E7" s="2">
-        <v>-0.65516970768126903</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2">
+        <v>4.2190183832982786</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.4068954644522411</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.084201494637616E-2</v>
+      </c>
+      <c r="F8" s="2">
         <v>1.290627453495063</v>
       </c>
-      <c r="C8" s="2">
-        <v>4.2190183832982786</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2.4068954644522411</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2.084201494637616E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2">
+        <v>2.3320216609631461</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.3534150836646219</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-0.18973843562195561</v>
+      </c>
+      <c r="F9" s="2">
         <v>0.7164414640981831</v>
       </c>
-      <c r="C9" s="2">
-        <v>2.3320216609631461</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.3534150836646219</v>
-      </c>
-      <c r="E9" s="2">
-        <v>-0.18973843562195561</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2">
+        <v>2.367979891301331</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.67679795771789</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.24820694628310269</v>
+      </c>
+      <c r="F10" s="2">
         <v>1.0984106026272089</v>
       </c>
-      <c r="C10" s="2">
-        <v>2.367979891301331</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.67679795771789</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.24820694628310269</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2">
+        <v>1.304199101841141</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.94022033076627265</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6.4839989701859224E-3</v>
+      </c>
+      <c r="F11" s="2">
         <v>0.48501151999723602</v>
       </c>
-      <c r="C11" s="2">
-        <v>1.304199101841141</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.94022033076627265</v>
-      </c>
-      <c r="E11" s="2">
-        <v>6.4839989701859224E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2">
+        <v>0.82418846620576636</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2.0322193574473509E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-0.1527281592442975</v>
+      </c>
+      <c r="F12" s="2">
         <v>0.1435488309990629</v>
       </c>
-      <c r="C12" s="2">
-        <v>0.82418846620576636</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2.0322193574473509E-2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-0.1527281592442975</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2">
+        <v>0.41092458527243192</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.1142002938280262</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-0.17004567653753361</v>
+      </c>
+      <c r="F13" s="2">
         <v>3.4047995325381393E-2</v>
       </c>
-      <c r="C13" s="2">
-        <v>0.41092458527243192</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.1142002938280262</v>
-      </c>
-      <c r="E13" s="2">
-        <v>-0.17004567653753361</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2">
+        <v>0.8891021817469702</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-0.75165800249243908</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-6.1318966109480399E-2</v>
+      </c>
+      <c r="F14" s="2">
         <v>6.3786326316583875E-2</v>
       </c>
-      <c r="C14" s="2">
-        <v>0.8891021817469702</v>
-      </c>
-      <c r="D14" s="2">
-        <v>-0.75165800249243908</v>
-      </c>
-      <c r="E14" s="2">
-        <v>-6.1318966109480399E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="2">
+        <v>1.2588347659959309</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-0.93562612672171142</v>
+      </c>
+      <c r="D15" s="2">
+        <v>7.7315191455251675E-2</v>
+      </c>
+      <c r="F15" s="2">
         <v>0.18354014150051559</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1.2588347659959309</v>
-      </c>
-      <c r="D15" s="2">
-        <v>-0.93562612672171142</v>
-      </c>
-      <c r="E15" s="2">
-        <v>7.7315191455251675E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Dados/R2_IS_PCA.xlsx
+++ b/Dados/R2_IS_PCA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Datathon_2023\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E55379-B3A7-4FE9-8E5A-83B1F61D7205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB94EE50-F1E2-4C6C-8C57-CD6E9218E41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22860" yWindow="810" windowWidth="19185" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
